--- a/features/android/connectionpage_symlexVPN.xlsx
+++ b/features/android/connectionpage_symlexVPN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C729FC-7681-4E67-B309-9F88E1108C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2656264A-9422-4C6F-A94F-B941AAC58687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connection Page" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="77">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -323,6 +323,9 @@
   <si>
     <t>Scenario : Connection Page</t>
   </si>
+  <si>
+    <t>TC_SYM_AC_015</t>
+  </si>
 </sst>
 </file>
 
@@ -407,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -533,11 +536,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,6 +607,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -599,8 +618,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,7 +1111,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G18">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites"/>
@@ -1304,8 +1329,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:G2"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1321,15 +1346,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1351,13 +1376,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1663,7 +1688,7 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="18" t="s">
@@ -1703,7 +1728,7 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1721,7 +1746,7 @@
       <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1743,13 +1768,13 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -1761,7 +1786,7 @@
       <c r="F12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1783,25 +1808,25 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="19" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="19" t="s">
         <v>56</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1823,25 +1848,25 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="19" t="s">
         <v>60</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1903,7 +1928,7 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="18" t="s">
@@ -1921,7 +1946,7 @@
       <c r="F16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="19"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1943,25 +1968,25 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1982,14 +2007,18 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+    <row r="18" spans="1:26" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -29231,7 +29260,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F17" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
